--- a/HW5/HW5_Report.xlsx
+++ b/HW5/HW5_Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhud/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54BE3EAF-FAC8-F741-BF19-DBE6ED912034}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEEE810-4009-D441-98D9-1F83DC41ADFE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="440" windowWidth="15420" windowHeight="17340" xr2:uid="{501AB6B6-04F8-E84C-8050-211437EAD8F7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{501AB6B6-04F8-E84C-8050-211437EAD8F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="output" localSheetId="0">Sheet1!$B$32:$F$109</definedName>
     <definedName name="output2" localSheetId="0">Sheet1!$O$5:$X$186</definedName>
     <definedName name="output2_1" localSheetId="0">Sheet1!$A$58:$E$225</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$O$63</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$42</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Zachary Hudnall</t>
   </si>
@@ -207,23 +207,153 @@
     <t>HW 5: GPU Programming</t>
   </si>
   <si>
-    <t>CPU Execution Time</t>
-  </si>
-  <si>
-    <t>GPU Execution Time</t>
-  </si>
-  <si>
     <t>Host to Device</t>
   </si>
   <si>
     <t>Device to Host</t>
+  </si>
+  <si>
+    <t>GPU Execution</t>
+  </si>
+  <si>
+    <t>CPU Execution</t>
+  </si>
+  <si>
+    <t>* times listed are in milliseconds</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Speed Improvement</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Times listed in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF9ABA84"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve">green </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve"> represent speed improvement over the host code.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>Changes to the Code</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve"> Nothing substantial. Defined the max thread count for the computation and also created a shared memory address for the blocks within the grid.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>GPU Advantage</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve"> The thread and times listed in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF7079"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t>red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Body)_x0000_"/>
+      </rPr>
+      <t xml:space="preserve"> represent the thread count when GPU parallelism surpasses the CPU in lower runtime and complexity.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,6 +390,61 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF7079"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF9ABA84"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF7079"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
   <fills count="7">
@@ -312,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -331,6 +516,9 @@
     <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="20" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,12 +530,36 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9ABA84"/>
+      <color rgb="FFFF7079"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -599,7 +811,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$4:$C$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>9.7499999999999996E-4</c:v>
@@ -659,29 +871,19 @@
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="0"/>
+                      <a:lumOff val="100000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
+                  <a:gs pos="69000">
+                    <a:schemeClr val="accent2"/>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
+                <a:path path="circle">
+                  <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+                </a:path>
               </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -788,7 +990,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$4:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.0832000000000001E-2</c:v>
@@ -1009,7 +1211,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>TIME (SEC)</a:t>
+                  <a:t>TIME (MSEC)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1042,7 +1244,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1092,7 +1294,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.74403371943275842"/>
           <c:y val="0.18754435776557532"/>
-          <c:w val="0.12790094947015385"/>
+          <c:w val="0.12849503199680656"/>
           <c:h val="0.16019817529528771"/>
         </c:manualLayout>
       </c:layout>
@@ -1418,7 +1620,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$11:$C$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.6847129999999999</c:v>
@@ -1475,29 +1677,19 @@
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="0"/>
+                      <a:lumOff val="100000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
+                  <a:gs pos="69000">
+                    <a:schemeClr val="accent2"/>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
+                <a:path path="circle">
+                  <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+                </a:path>
               </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -1543,7 +1735,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1601,7 +1793,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$11:$D$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.273056</c:v>
@@ -1648,8 +1840,8 @@
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="100000"/>
-          <c:min val="2000"/>
+          <c:max val="66536"/>
+          <c:min val="2048"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1819,7 +2011,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>TIME (SEC)</a:t>
+                  <a:t>TIME (MSEC)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1852,7 +2044,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1885,6 +2077,8 @@
         <c:crossAx val="229123392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="250"/>
+        <c:minorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2087,7 +2281,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>CPU</c:v>
+            <c:v>Device to Host</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
@@ -2150,7 +2344,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" anchorCtr="0">
+              <a:bodyPr rot="-2700000" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="t" anchorCtr="0">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -2173,7 +2367,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="t"/>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2199,10 +2393,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$10</c:f>
+              <c:f>Sheet1!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -2223,36 +2417,72 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$10</c:f>
+              <c:f>Sheet1!$F$4:$F$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>9.7499999999999996E-4</c:v>
+                  <c:v>2.1696E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.575E-3</c:v>
+                  <c:v>2.2079999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5609999999999999E-3</c:v>
+                  <c:v>2.1024000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.8040000000000002E-3</c:v>
+                  <c:v>2.2943999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1172999999999999E-2</c:v>
+                  <c:v>2.2016000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.112647</c:v>
+                  <c:v>2.3328000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.43652200000000002</c:v>
+                  <c:v>2.3168000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1408E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.256E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2880000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3071999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.15651200000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.256E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2268,7 +2498,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>GPU</c:v>
+            <c:v>Host to Device</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
@@ -2291,29 +2521,19 @@
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
+                  <a:gs pos="9000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="0"/>
+                      <a:lumOff val="100000"/>
                     </a:schemeClr>
                   </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent2">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent2">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
+                  <a:gs pos="69000">
+                    <a:schemeClr val="accent2"/>
                   </a:gs>
                 </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
+                <a:path path="circle">
+                  <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+                </a:path>
               </a:gradFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -2339,7 +2559,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="2700000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="36576" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
@@ -2369,6 +2589,15 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="rect">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2388,10 +2617,10 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$10</c:f>
+              <c:f>Sheet1!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>16</c:v>
                 </c:pt>
@@ -2412,36 +2641,72 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>65536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$10</c:f>
+              <c:f>Sheet1!$E$4:$E$16</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>8.0832000000000001E-2</c:v>
+                  <c:v>2.4511999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5407999999999994E-2</c:v>
+                  <c:v>1.7824E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.3360000000000004E-2</c:v>
+                  <c:v>2.9024000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.124608</c:v>
+                  <c:v>3.056E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20291200000000001</c:v>
+                  <c:v>3.1008000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34995199999999999</c:v>
+                  <c:v>3.2096E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65702400000000005</c:v>
+                  <c:v>3.6128E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1632000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2768000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.7696000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12678400000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2623999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.282528</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2470,8 +2735,8 @@
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="1200"/>
-          <c:min val="15"/>
+          <c:max val="65536"/>
+          <c:min val="16"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2597,13 +2862,15 @@
         <c:crossAx val="221219312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="2"/>
+        <c:majorUnit val="8"/>
         <c:minorUnit val="2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="221219312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.30000000000000004"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2641,7 +2908,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>TIME (SEC)</a:t>
+                  <a:t>TIME (MSEC)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2674,7 +2941,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2722,9 +2989,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.74403371943275842"/>
+          <c:x val="0.56566526826251662"/>
           <c:y val="0.18754435776557532"/>
-          <c:w val="0.12790094947015385"/>
+          <c:w val="0.30626938148870464"/>
           <c:h val="0.16019817529528771"/>
         </c:manualLayout>
       </c:layout>
@@ -4502,15 +4769,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>429361</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>34011</xdr:rowOff>
+      <xdr:colOff>467461</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>72111</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4854,11 +5121,11 @@
   </sheetPr>
   <dimension ref="A1:X225"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="75" workbookViewId="0">
+      <selection sqref="A1:M42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" style="1" customWidth="1"/>
@@ -4879,35 +5146,37 @@
     <col min="25" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:20" ht="19">
+      <c r="A1" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="3"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="G2" s="23" t="s">
+        <v>41</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -4917,22 +5186,24 @@
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
+    <row r="3" spans="1:20">
+      <c r="A3" s="4" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>40</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4944,23 +5215,23 @@
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="5">
         <v>4</v>
       </c>
       <c r="B4" s="6">
         <v>16</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="22">
         <v>9.7499999999999996E-4</v>
       </c>
-      <c r="D4" s="19">
+      <c r="D4" s="22">
         <v>8.0832000000000001E-2</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="16">
         <v>2.4511999999999999E-2</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="22">
         <v>2.1696E-2</v>
       </c>
       <c r="G4" s="3"/>
@@ -4973,23 +5244,23 @@
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="5">
         <v>5</v>
       </c>
       <c r="B5" s="6">
         <v>32</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="22">
         <v>1.575E-3</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="22">
         <v>6.5407999999999994E-2</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="16">
         <v>1.7824E-2</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="22">
         <v>2.2079999999999999E-2</v>
       </c>
       <c r="G5" s="3"/>
@@ -5005,23 +5276,23 @@
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="5">
         <v>6</v>
       </c>
       <c r="B6" s="6">
         <v>64</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="22">
         <v>3.5609999999999999E-3</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="22">
         <v>8.3360000000000004E-2</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="16">
         <v>2.9024000000000001E-2</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="22">
         <v>2.1024000000000001E-2</v>
       </c>
       <c r="G6" s="3"/>
@@ -5037,23 +5308,23 @@
       <c r="S6" s="14"/>
       <c r="T6" s="14"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="5">
         <v>7</v>
       </c>
       <c r="B7" s="6">
         <v>128</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="22">
         <v>9.8040000000000002E-3</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="22">
         <v>0.124608</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="16">
         <v>3.056E-2</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="22">
         <v>2.2943999999999999E-2</v>
       </c>
       <c r="G7" s="3"/>
@@ -5069,23 +5340,23 @@
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="5">
         <v>8</v>
       </c>
       <c r="B8" s="6">
         <v>256</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="22">
         <v>3.1172999999999999E-2</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="22">
         <v>0.20291200000000001</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="16">
         <v>3.1008000000000001E-2</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="22">
         <v>2.2016000000000001E-2</v>
       </c>
       <c r="G8" s="3"/>
@@ -5101,23 +5372,23 @@
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="5">
         <v>9</v>
       </c>
       <c r="B9" s="6">
         <v>512</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="22">
         <v>0.112647</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="22">
         <v>0.34995199999999999</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="16">
         <v>3.2096E-2</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="22">
         <v>2.3328000000000002E-2</v>
       </c>
       <c r="G9" s="3"/>
@@ -5133,23 +5404,23 @@
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="5">
         <v>10</v>
       </c>
       <c r="B10" s="6">
         <v>1024</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="22">
         <v>0.43652200000000002</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="22">
         <v>0.65702400000000005</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="16">
         <v>3.6128E-2</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="22">
         <v>2.3168000000000001E-2</v>
       </c>
       <c r="G10" s="3"/>
@@ -5165,23 +5436,23 @@
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="5">
         <v>11</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="25">
         <v>2048</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="26">
         <v>1.6847129999999999</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="26">
         <v>1.273056</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="16">
         <v>4.1632000000000002E-2</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="22">
         <v>2.1408E-2</v>
       </c>
       <c r="G11" s="3"/>
@@ -5197,23 +5468,23 @@
       <c r="S11" s="14"/>
       <c r="T11" s="14"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="5">
         <v>12</v>
       </c>
       <c r="B12" s="6">
         <v>4096</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="22">
         <v>6.6512120000000001</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="24">
         <v>2.5055679999999998</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="16">
         <v>5.2768000000000002E-2</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="22">
         <v>2.256E-2</v>
       </c>
       <c r="G12" s="3"/>
@@ -5229,23 +5500,23 @@
       <c r="S12" s="14"/>
       <c r="T12" s="14"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="5">
         <v>13</v>
       </c>
       <c r="B13" s="6">
         <v>8192</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="22">
         <v>26.511049</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="24">
         <v>4.9678399999999998</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="16">
         <v>7.7696000000000001E-2</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="22">
         <v>2.2880000000000001E-2</v>
       </c>
       <c r="G13" s="3"/>
@@ -5261,23 +5532,23 @@
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="5">
         <v>14</v>
       </c>
       <c r="B14" s="6">
         <v>16384</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="22">
         <v>105.637466</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="24">
         <v>10.408448</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="16">
         <v>0.12678400000000001</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="22">
         <v>2.3071999999999999E-2</v>
       </c>
       <c r="G14" s="3"/>
@@ -5293,23 +5564,23 @@
       <c r="S14" s="14"/>
       <c r="T14" s="14"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="5">
         <v>15</v>
       </c>
       <c r="B15" s="6">
         <v>32768</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="22">
         <v>423.41574100000003</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="24">
         <v>23.819904000000001</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="16">
         <v>2.2623999999999998E-2</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="22">
         <v>0.15651200000000001</v>
       </c>
       <c r="G15" s="3"/>
@@ -5325,23 +5596,23 @@
       <c r="S15" s="14"/>
       <c r="T15" s="14"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="5">
         <v>16</v>
       </c>
       <c r="B16" s="6">
         <v>65536</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="22">
         <v>1704.7604980000001</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="24">
         <v>73.333022999999997</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="16">
         <v>0.282528</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="22">
         <v>2.256E-2</v>
       </c>
       <c r="G16" s="3"/>
@@ -5357,23 +5628,23 @@
       <c r="S16" s="14"/>
       <c r="T16" s="14"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="5">
         <v>17</v>
       </c>
       <c r="B17" s="6">
         <v>131072</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="22">
         <v>6838.7182620000003</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="24">
         <v>274.725098</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="16">
         <v>0.52947200000000005</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="22">
         <v>2.3616000000000002E-2</v>
       </c>
       <c r="G17" s="3"/>
@@ -5389,13 +5660,13 @@
       <c r="S17" s="14"/>
       <c r="T17" s="14"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -5409,15 +5680,17 @@
       <c r="S18" s="14"/>
       <c r="T18" s="14"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" ht="19">
       <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="B19" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="29"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -5431,15 +5704,17 @@
       <c r="S19" s="15"/>
       <c r="T19" s="14"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" ht="16" customHeight="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="B20" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -5453,15 +5728,15 @@
       <c r="S20" s="15"/>
       <c r="T20" s="14"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" ht="19">
       <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -5475,15 +5750,17 @@
       <c r="S21" s="15"/>
       <c r="T21" s="14"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" ht="16" customHeight="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="B22" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -5497,15 +5774,15 @@
       <c r="S22" s="15"/>
       <c r="T22" s="14"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" ht="16" customHeight="1">
       <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -5519,14 +5796,14 @@
       <c r="S23" s="15"/>
       <c r="T23" s="14"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20">
       <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="3"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -5541,13 +5818,13 @@
       <c r="S24" s="15"/>
       <c r="T24" s="14"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
@@ -5563,13 +5840,13 @@
       <c r="S25" s="15"/>
       <c r="T25" s="14"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="19"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
@@ -5585,13 +5862,13 @@
       <c r="S26" s="15"/>
       <c r="T26" s="14"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="20"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
@@ -5607,13 +5884,13 @@
       <c r="S27" s="15"/>
       <c r="T27" s="14"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="19"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
@@ -5629,13 +5906,13 @@
       <c r="S28" s="15"/>
       <c r="T28" s="14"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="19"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="20"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -5651,13 +5928,13 @@
       <c r="S29" s="15"/>
       <c r="T29" s="14"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
@@ -5673,13 +5950,13 @@
       <c r="S30" s="15"/>
       <c r="T30" s="14"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="20"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
@@ -5691,13 +5968,13 @@
       <c r="O31" s="6"/>
       <c r="S31" s="11"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
@@ -5709,13 +5986,13 @@
       <c r="O32" s="6"/>
       <c r="S32" s="11"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
@@ -5727,13 +6004,13 @@
       <c r="O33" s="6"/>
       <c r="S33" s="11"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
@@ -5744,13 +6021,13 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
@@ -5761,13 +6038,13 @@
       <c r="N35" s="6"/>
       <c r="O35" s="6"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
@@ -5778,13 +6055,13 @@
       <c r="N36" s="6"/>
       <c r="O36" s="6"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
@@ -5795,7 +6072,7 @@
       <c r="N37" s="6"/>
       <c r="O37" s="6"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
@@ -5812,7 +6089,7 @@
       <c r="N38" s="6"/>
       <c r="O38" s="6"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -5829,7 +6106,7 @@
       <c r="N39" s="6"/>
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19">
       <c r="A40" s="5"/>
       <c r="B40" s="6"/>
       <c r="C40" s="7"/>
@@ -5846,7 +6123,7 @@
       <c r="N40" s="6"/>
       <c r="O40" s="6"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19">
       <c r="A41" s="5"/>
       <c r="B41" s="6"/>
       <c r="C41" s="7"/>
@@ -5863,7 +6140,7 @@
       <c r="N41" s="6"/>
       <c r="O41" s="6"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
       <c r="C42" s="7"/>
@@ -5880,7 +6157,7 @@
       <c r="N42" s="6"/>
       <c r="O42" s="6"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19">
       <c r="A43" s="5"/>
       <c r="B43" s="6"/>
       <c r="C43" s="7"/>
@@ -5897,7 +6174,7 @@
       <c r="N43" s="6"/>
       <c r="O43" s="6"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19">
       <c r="A44" s="5"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -5914,7 +6191,7 @@
       <c r="N44" s="6"/>
       <c r="O44" s="6"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -5931,7 +6208,7 @@
       <c r="N45" s="6"/>
       <c r="O45" s="6"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -5948,7 +6225,7 @@
       <c r="N46" s="6"/>
       <c r="O46" s="6"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -5965,7 +6242,7 @@
       <c r="N47" s="6"/>
       <c r="O47" s="6"/>
     </row>
-    <row r="48" spans="1:19" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="20" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
@@ -5982,7 +6259,7 @@
       <c r="N48" s="6"/>
       <c r="O48" s="6"/>
     </row>
-    <row r="49" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="20" customHeight="1">
       <c r="A49" s="5"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -5999,7 +6276,7 @@
       <c r="N49" s="6"/>
       <c r="O49" s="6"/>
     </row>
-    <row r="50" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="16" customHeight="1">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -6016,7 +6293,7 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
     </row>
-    <row r="51" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="16" customHeight="1">
       <c r="A51" s="5"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -6033,7 +6310,7 @@
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
     </row>
-    <row r="52" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="16" customHeight="1">
       <c r="A52" s="5"/>
       <c r="B52" s="6"/>
       <c r="C52" s="6"/>
@@ -6050,7 +6327,7 @@
       <c r="N52" s="6"/>
       <c r="O52" s="6"/>
     </row>
-    <row r="53" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="16" customHeight="1">
       <c r="A53" s="5"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
@@ -6067,7 +6344,7 @@
       <c r="N53" s="6"/>
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="16" customHeight="1">
       <c r="A54" s="5"/>
       <c r="B54" s="6"/>
       <c r="C54" s="6"/>
@@ -6084,7 +6361,7 @@
       <c r="N54" s="6"/>
       <c r="O54" s="6"/>
     </row>
-    <row r="55" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="16" customHeight="1">
       <c r="A55" s="5"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -6101,7 +6378,7 @@
       <c r="N55" s="6"/>
       <c r="O55" s="6"/>
     </row>
-    <row r="56" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="16" customHeight="1">
       <c r="A56" s="5"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
@@ -6118,7 +6395,7 @@
       <c r="N56" s="6"/>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="16" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
@@ -6135,7 +6412,7 @@
       <c r="N57" s="6"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="16" customHeight="1">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
@@ -6152,7 +6429,7 @@
       <c r="N58" s="6"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="16" customHeight="1">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -6169,7 +6446,7 @@
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
     </row>
-    <row r="60" spans="1:15" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="16" customHeight="1">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
@@ -6186,7 +6463,7 @@
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
@@ -6203,7 +6480,7 @@
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -6220,7 +6497,7 @@
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
@@ -6237,7 +6514,7 @@
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -6252,9 +6529,9 @@
       <c r="L64" s="14"/>
       <c r="M64" s="14"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13">
       <c r="A65" s="14"/>
-      <c r="B65" s="16"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
@@ -6267,7 +6544,7 @@
       <c r="L65" s="14"/>
       <c r="M65" s="14"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -6282,7 +6559,7 @@
       <c r="L66" s="14"/>
       <c r="M66" s="14"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -6297,7 +6574,7 @@
       <c r="L67" s="14"/>
       <c r="M67" s="14"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -6312,7 +6589,7 @@
       <c r="L68" s="14"/>
       <c r="M68" s="14"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -6327,7 +6604,7 @@
       <c r="L69" s="14"/>
       <c r="M69" s="14"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -6342,7 +6619,7 @@
       <c r="L70" s="14"/>
       <c r="M70" s="14"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -6357,7 +6634,7 @@
       <c r="L71" s="14"/>
       <c r="M71" s="14"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -6372,7 +6649,7 @@
       <c r="L72" s="14"/>
       <c r="M72" s="14"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -6387,7 +6664,7 @@
       <c r="L73" s="14"/>
       <c r="M73" s="14"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -6402,7 +6679,7 @@
       <c r="L74" s="14"/>
       <c r="M74" s="14"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -6417,7 +6694,7 @@
       <c r="L75" s="14"/>
       <c r="M75" s="14"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -6432,7 +6709,7 @@
       <c r="L76" s="14"/>
       <c r="M76" s="14"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -6447,7 +6724,7 @@
       <c r="L77" s="14"/>
       <c r="M77" s="14"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -6462,7 +6739,7 @@
       <c r="L78" s="14"/>
       <c r="M78" s="14"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -6477,7 +6754,7 @@
       <c r="L79" s="14"/>
       <c r="M79" s="14"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -6492,7 +6769,7 @@
       <c r="L80" s="14"/>
       <c r="M80" s="14"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -6507,13 +6784,13 @@
       <c r="L81" s="14"/>
       <c r="M81" s="14"/>
     </row>
-    <row r="113" spans="15:24" x14ac:dyDescent="0.2">
+    <row r="113" spans="15:24">
       <c r="P113" s="12"/>
     </row>
-    <row r="122" spans="15:24" x14ac:dyDescent="0.2">
+    <row r="122" spans="15:24">
       <c r="O122" s="13"/>
     </row>
-    <row r="125" spans="15:24" x14ac:dyDescent="0.2">
+    <row r="125" spans="15:24">
       <c r="O125" s="1" t="s">
         <v>8</v>
       </c>
@@ -6527,7 +6804,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="15:24" x14ac:dyDescent="0.2">
+    <row r="126" spans="15:24">
       <c r="O126" s="1" t="s">
         <v>12</v>
       </c>
@@ -6541,7 +6818,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="128" spans="15:24" x14ac:dyDescent="0.2">
+    <row r="128" spans="15:24">
       <c r="O128" s="1" t="s">
         <v>15</v>
       </c>
@@ -6573,7 +6850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="15:16">
       <c r="O130" s="1" t="s">
         <v>21</v>
       </c>
@@ -6581,92 +6858,92 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="15:16">
       <c r="O132" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="15:16">
       <c r="O133" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="15:16">
       <c r="O134" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="15:16">
       <c r="O135" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="15:16">
       <c r="O136" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="15:16">
       <c r="O137" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="138" spans="15:16">
       <c r="O138" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="15:16">
       <c r="O139" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="140" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="140" spans="15:16">
       <c r="O140" s="1">
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="15:16">
       <c r="O141" s="1">
         <v>512</v>
       </c>
     </row>
-    <row r="142" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="15:16">
       <c r="O142" s="1">
         <v>1024</v>
       </c>
     </row>
-    <row r="143" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="15:16">
       <c r="O143" s="1">
         <v>2048</v>
       </c>
     </row>
-    <row r="144" spans="15:16" x14ac:dyDescent="0.2">
+    <row r="144" spans="15:16">
       <c r="O144" s="1">
         <v>4096</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15">
       <c r="O145" s="1">
         <v>8192</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15">
       <c r="A161" s="13">
         <v>6.9444444444444441E-3</v>
       </c>
@@ -6674,12 +6951,12 @@
         <v>33</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15">
       <c r="A162" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15">
       <c r="A163" s="1" t="s">
         <v>7</v>
       </c>
@@ -6690,7 +6967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15">
       <c r="A164" s="1" t="s">
         <v>8</v>
       </c>
@@ -6701,7 +6978,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15">
       <c r="A165" s="1" t="s">
         <v>12</v>
       </c>
@@ -6712,12 +6989,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15">
       <c r="O166" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15">
       <c r="A167" s="1" t="s">
         <v>15</v>
       </c>
@@ -6734,12 +7011,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15">
       <c r="O168" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15">
       <c r="A169" s="1" t="s">
         <v>21</v>
       </c>
@@ -6750,7 +7027,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15">
       <c r="A171" s="1">
         <v>1</v>
       </c>
@@ -6758,27 +7035,27 @@
         <v>23</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15">
       <c r="A172" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15">
       <c r="A173" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15">
       <c r="A174" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15">
       <c r="A175" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15">
       <c r="A176" s="1">
         <v>32</v>
       </c>
@@ -6786,12 +7063,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:16">
       <c r="A177" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:16">
       <c r="A178" s="1">
         <v>128</v>
       </c>
@@ -6802,7 +7079,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:16">
       <c r="A179" s="1">
         <v>256</v>
       </c>
@@ -6813,7 +7090,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:16">
       <c r="A180" s="1">
         <v>512</v>
       </c>
@@ -6824,7 +7101,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:16">
       <c r="A181" s="1">
         <v>1024</v>
       </c>
@@ -6835,7 +7112,7 @@
         <v>51200</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:16">
       <c r="A182" s="1">
         <v>2048</v>
       </c>
@@ -6846,7 +7123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:16">
       <c r="A183" s="1">
         <v>4096</v>
       </c>
@@ -6854,7 +7131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:16">
       <c r="A184" s="1">
         <v>8192</v>
       </c>
@@ -6862,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:16">
       <c r="O186" s="1" t="s">
         <v>31</v>
       </c>
@@ -6870,87 +7147,87 @@
         <v>32</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1">
       <c r="A202" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1">
       <c r="A203" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1">
       <c r="A204" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1">
       <c r="A205" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1">
       <c r="A206" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1">
       <c r="A207" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1">
       <c r="A208" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2">
       <c r="A225" s="1" t="s">
         <v>31</v>
       </c>
@@ -6959,12 +7236,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="J1:L1"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G21"/>
+    <mergeCell ref="B22:G24"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="52" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="67" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6977,7 +7257,7 @@
       <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
@@ -6994,52 +7274,52 @@
     <col min="13" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="5:5">
       <c r="E15" s="9"/>
     </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="5:5">
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:5">
       <c r="E17" s="9"/>
     </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:5">
       <c r="E18" s="9"/>
     </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:5">
       <c r="E19" s="9"/>
     </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:5">
       <c r="E20" s="9"/>
     </row>
-    <row r="21" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:5">
       <c r="E21" s="9"/>
     </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:5">
       <c r="E22" s="9"/>
     </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:5">
       <c r="E23" s="9"/>
     </row>
-    <row r="24" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="5:5">
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="5:5">
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="5:5">
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="5:5">
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="5:5">
       <c r="E28" s="9"/>
     </row>
-    <row r="29" spans="5:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="5:5">
       <c r="E29" s="9"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3">
       <c r="C40" s="10"/>
     </row>
   </sheetData>
